--- a/PRACA2_/CSV/Process.xlsx
+++ b/PRACA2_/CSV/Process.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maciek\Desktop\PRACA2_\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CF829E2-2C36-48E2-BFED-FFF9947FCCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C110C6-01EE-4EA0-9A64-AE3FA7F4A82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAA2B689-E59B-4277-B639-F002356E89C8}"/>
   </bookViews>
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA5AA6D-C5BC-44ED-9338-FB74DA305A27}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -421,21 +421,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
